--- a/data/Tabela_02_Pop_resid_por_cor_ou_raca_e_pessoas_indigenas_2022_BR_GR.xlsx
+++ b/data/Tabela_02_Pop_resid_por_cor_ou_raca_e_pessoas_indigenas_2022_BR_GR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27218"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fundacaoibge.sharepoint.com/sites/EquipeGTdePCTs-Divulgaodefinitiva/Documentos Compartilhados/Divulgação definitiva/Entrega_CDDI_Cor_Raca_15dez2023/Tabelas complementares/XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Freelance\Brazil-Li\brazil-da\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{88EBE18D-C19B-4C93-92A2-606490E81D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B90020B-5526-4724-94AF-E72AE4274597}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120C45AF-A882-442F-A17C-225B10803671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{4FE9E1A0-6F8A-4E91-99BD-6B590E67AF4F}"/>
+    <workbookView xWindow="3420" yWindow="3465" windowWidth="14610" windowHeight="13020" firstSheet="1" xr2:uid="{4FE9E1A0-6F8A-4E91-99BD-6B590E67AF4F}"/>
   </bookViews>
   <sheets>
     <sheet name="pop resid corRaca e ind BR, GR" sheetId="2" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Identificação étnico-racial, por sexo e idade: Primeiros resultados do universo</t>
   </si>
   <si>
-    <t>Tabela 2 - População residente por cor ou raça e total de pessoas indígenas, segundo as Grandes Regiões - Brasil - 2022</t>
-  </si>
-  <si>
     <t>Ano - 2022</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>7 - No Censo Demográfico 2022, foram consideradas as Terras Indígenas declaradas, homologadas, regularizadas ou encaminhadas como Reservas Indígenas até 31 de julho de 2022, data de referência da pesquisa, conforme os dados da Fundação Nacional dos Povos Indígenas – FUNAI. Para mais informações, consultar a documentação metodológica.</t>
+  </si>
+  <si>
+    <t>Tabela 2 - Resident population by color or race and total number of indigenous people, according to Major Regions - Brazil - 2022</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="###\ ###\ ###\ ###\ ##0_ ;\-###\ ###\ ###\ ###\ ##0_ ;@&quot; &quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -481,6 +481,9 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -490,9 +493,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,22 +514,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,9 +542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -585,7 +582,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -691,7 +688,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -833,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,10 +841,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C15"/>
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -862,69 +859,69 @@
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>3</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -942,15 +939,15 @@
       <c r="O4" s="35"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -966,123 +963,123 @@
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="34"/>
       <c r="C6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31" t="s">
-        <v>9</v>
-      </c>
       <c r="P6" s="31"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="I8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="L8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="M8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="N8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="15">
         <v>76</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="15">
         <v>88252121</v>
@@ -1100,7 +1097,7 @@
         <v>1227642</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="17">
         <v>43.459043067083435</v>
@@ -1124,15 +1121,15 @@
         <v>0.83456258159685004</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>3598439</v>
@@ -1150,7 +1147,7 @@
         <v>539821</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="19">
         <v>20.736352672761495</v>
@@ -1174,15 +1171,15 @@
         <v>4.3431069468623074</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>14571416</v>
@@ -1200,7 +1197,7 @@
         <v>327725</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="19">
         <v>26.66120637718728</v>
@@ -1224,15 +1221,15 @@
         <v>0.9680772604427843</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>42318768</v>
@@ -1250,7 +1247,7 @@
         <v>109934</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="19">
         <v>49.882845571498478</v>
@@ -1274,15 +1271,15 @@
         <v>0.14549014096669108</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>21729713</v>
@@ -1324,15 +1321,15 @@
         <v>0.29508272945161529</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="7">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
         <v>6033785</v>
@@ -1374,18 +1371,18 @@
         <v>1.2287211583287383</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -1394,7 +1391,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="10:19">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -1406,7 +1403,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="10:19">
+    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -1418,7 +1415,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="10:19">
+    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1430,7 +1427,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
     </row>
-    <row r="20" spans="10:19">
+    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -1442,7 +1439,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="10:19">
+    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -1454,7 +1451,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
     </row>
-    <row r="22" spans="10:19">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -1463,14 +1460,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="H8:H9"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A16:I16"/>
@@ -1487,6 +1476,14 @@
     <mergeCell ref="O6:P8"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="A2:P2"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1500,46 +1497,46 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1548,6 +1545,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010031448C3EBD8EC141866AD1CE76139379" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="84bd5c7aa2f42c82194a811bb55fef2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c3d1b38-a16c-4759-b92e-2efe9ffee0e6" xmlns:ns3="9ab8431d-268a-4774-9d90-b4cf8a082c95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed217315ee934bff26a434b6ac61b101" ns2:_="" ns3:_="">
     <xsd:import namespace="7c3d1b38-a16c-4759-b92e-2efe9ffee0e6"/>
@@ -1752,15 +1758,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1779,13 +1776,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F46740-5086-402E-904D-332A84AA1D0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A8471A-52AF-4768-8958-BC4A603B667D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A8471A-52AF-4768-8958-BC4A603B667D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F46740-5086-402E-904D-332A84AA1D0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7c3d1b38-a16c-4759-b92e-2efe9ffee0e6"/>
+    <ds:schemaRef ds:uri="9ab8431d-268a-4774-9d90-b4cf8a082c95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83660FE8-F9E1-4036-A75F-05D8387CC740}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83660FE8-F9E1-4036-A75F-05D8387CC740}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7c3d1b38-a16c-4759-b92e-2efe9ffee0e6"/>
+    <ds:schemaRef ds:uri="9ab8431d-268a-4774-9d90-b4cf8a082c95"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>